--- a/SCBAA/2017/Region 7.xlsx
+++ b/SCBAA/2017/Region 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657E1F43-57E1-434C-B285-09BB2671F595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEA3CC-79C7-4DF2-B467-B59DE5BC0809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="1" activeTab="1" xr2:uid="{B17827EE-9459-449C-BD53-D7D58AD1A56D}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="8" xr2:uid="{B17827EE-9459-449C-BD53-D7D58AD1A56D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bogo" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1230,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="21">
-        <f>4694193.77-123889.51+1007074.03+10481698.11-916047.86</f>
         <v>15143028.539999999</v>
       </c>
     </row>
@@ -1242,7 +1241,6 @@
         <v>55</v>
       </c>
       <c r="E12" s="21">
-        <f>16266945.44+30000+156519+5000</f>
         <v>16458464.439999999</v>
       </c>
     </row>
@@ -1254,7 +1252,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="21">
-        <f>3443.4+773455.15+254910.89+199697.96+24750+1020232.05+1104935.64</f>
         <v>3381425.09</v>
       </c>
     </row>
@@ -1266,7 +1263,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>34982918.069999993</v>
       </c>
     </row>
@@ -1287,7 +1283,6 @@
         <v>51</v>
       </c>
       <c r="E16" s="21">
-        <f>3276633.08+452662+479443.78+2270405+223972.5+204754+2390516.59+140120+173700+2872829.75</f>
         <v>12485036.699999999</v>
       </c>
     </row>
@@ -1299,7 +1294,6 @@
         <v>50</v>
       </c>
       <c r="E17" s="21">
-        <f>101720+1142338+670390+4100110+5505349.22+1561350+11117893+340744.25+465650+4800</f>
         <v>25010344.469999999</v>
       </c>
     </row>
@@ -1311,7 +1305,6 @@
         <v>49</v>
       </c>
       <c r="E18" s="21">
-        <f>622555+2608400+1219839.87+100+1105+67185.2+600</f>
         <v>4519785.07</v>
       </c>
     </row>
@@ -1323,7 +1316,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>42015166.240000002</v>
       </c>
     </row>
@@ -1514,7 +1506,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>449485680.47000003</v>
       </c>
     </row>
@@ -1560,7 +1551,6 @@
         <v>26</v>
       </c>
       <c r="E42" s="21">
-        <f>13083965.06+1744792.1+1390056.32+1461874.92+1435215.92+1466561.12+524785.09+1190625.99+1573047.35+4552257.02+3064822.43+0</f>
         <v>31488003.32</v>
       </c>
     </row>
@@ -1572,7 +1562,6 @@
         <v>25</v>
       </c>
       <c r="E43" s="21">
-        <f>52250910.23+2573076.56+324890.66+1105148.11+1002618.39+781582.98+24680255.99+767693.66+2612928.98+4251661.68+1367755.31+45879.25</f>
         <v>91764401.799999982</v>
       </c>
     </row>
@@ -1584,7 +1573,6 @@
         <v>2</v>
       </c>
       <c r="E44" s="21">
-        <f>19753855.58</f>
         <v>19753855.579999998</v>
       </c>
     </row>
@@ -1616,7 +1604,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="21">
-        <f>1437925.95</f>
         <v>1437925.95</v>
       </c>
     </row>
@@ -1628,7 +1615,6 @@
         <v>2</v>
       </c>
       <c r="E48" s="28">
-        <f>1268145.55</f>
         <v>1268145.55</v>
       </c>
     </row>
@@ -1649,7 +1635,6 @@
         <v>26</v>
       </c>
       <c r="E50" s="21">
-        <f>0+7396352.27+5537355.33</f>
         <v>12933707.6</v>
       </c>
     </row>
@@ -1661,7 +1646,6 @@
         <v>25</v>
       </c>
       <c r="E51" s="21">
-        <f>69850+991818.95+304140.35</f>
         <v>1365809.2999999998</v>
       </c>
     </row>
@@ -1777,7 +1761,6 @@
         <v>26</v>
       </c>
       <c r="E62" s="21">
-        <f>427403.68+1195196.08+2198400</f>
         <v>3820999.76</v>
       </c>
     </row>
@@ -1789,7 +1772,6 @@
         <v>25</v>
       </c>
       <c r="E63" s="21">
-        <f>4812377.39+413035.97</f>
         <v>5225413.3599999994</v>
       </c>
     </row>
@@ -1821,7 +1803,6 @@
         <v>26</v>
       </c>
       <c r="E66" s="21">
-        <f>542194.56+1926352.29+1659519.21+0+27000+0+1782670.48+0+0</f>
         <v>5937736.54</v>
       </c>
     </row>
@@ -1833,7 +1814,6 @@
         <v>25</v>
       </c>
       <c r="E67" s="21">
-        <f>898624.89+3843687.05+4320050.39+11028700.16+339372.2+1393348.94+2525935.88+289304.18+139960+965460+5720175.09</f>
         <v>31464618.779999997</v>
       </c>
     </row>
@@ -1927,7 +1907,6 @@
         <v>21</v>
       </c>
       <c r="E76" s="21">
-        <f>20722004.06</f>
         <v>20722004.059999999</v>
       </c>
     </row>
@@ -1948,7 +1927,6 @@
         <v>14</v>
       </c>
       <c r="E78" s="21">
-        <f>585833+44800+9917</f>
         <v>640550</v>
       </c>
     </row>
@@ -1960,7 +1938,6 @@
         <v>13</v>
       </c>
       <c r="E79" s="21">
-        <f>2975061.91</f>
         <v>2975061.91</v>
       </c>
     </row>
@@ -1981,7 +1958,6 @@
         <v>14</v>
       </c>
       <c r="E81" s="21">
-        <f>12382763.89</f>
         <v>12382763.890000001</v>
       </c>
       <c r="F81" s="33"/>
@@ -2044,7 +2020,6 @@
         <v>14</v>
       </c>
       <c r="E87" s="21">
-        <f>389010+17484.25</f>
         <v>406494.25</v>
       </c>
     </row>
@@ -2076,7 +2051,6 @@
         <v>15</v>
       </c>
       <c r="E90" s="21">
-        <f>0+0+566650.24+0+0+0+0+0+0+15335570.08+1140051+240366.59</f>
         <v>17282637.91</v>
       </c>
     </row>
@@ -2088,7 +2062,6 @@
         <v>14</v>
       </c>
       <c r="E91" s="21">
-        <f>681503.47+1303243.65+320670.36+197515.52+186283.23+59448.5+184472.48+16940+227669.95+2252735.38+419020.98+6939.58+65050+3600+1086731.28+35130+196844+262255+665360+6000+1056109.94+824164.93+29792.02+59841+286038.92+15000+2456059.3+414390.5+1042295+70876+99650+68409.75+112900+205406+208500+2701977.43+673000+183576+33000+2951968+256000+7069.25+28731+2360598.68+57057.6+216274.04+56754.5+336+48010+1525.5+63400+20437.05+329300+796109+3240+14421.5+3330+14758524.92+357140+25830+39900+974876.7+18500+533733.5+7855862.14+5073.6+239545.85+5786446.57+63710+26706+10953+3118510.37+3758897.01+2873234.67</f>
         <v>66380406.620000005</v>
       </c>
     </row>
@@ -2109,7 +2082,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>338865572.02999997</v>
       </c>
     </row>
@@ -2284,7 +2256,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>43606794.969999999</v>
       </c>
     </row>
@@ -2296,7 +2267,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>382472367</v>
       </c>
     </row>
@@ -3506,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C1D4E9-12B7-45A0-8E6A-6A08B526D3EB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F108" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,7 +3602,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="25">
-        <f>8311965+4782543.5</f>
         <v>13094508.5</v>
       </c>
     </row>
@@ -3666,7 +3635,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>65590676.229999997</v>
       </c>
     </row>
@@ -3698,7 +3666,6 @@
         <v>50</v>
       </c>
       <c r="E17" s="25">
-        <f>16062015.16+47902.05</f>
         <v>16109917.210000001</v>
       </c>
     </row>
@@ -3721,7 +3688,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>28847594.910000004</v>
       </c>
     </row>
@@ -3912,7 +3878,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>806209233.04999995</v>
       </c>
     </row>
@@ -4011,7 +3976,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="25">
-        <f>9984369.99+2515623.67</f>
         <v>12499993.66</v>
       </c>
     </row>
@@ -4490,7 +4454,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>344286637.85000002</v>
       </c>
     </row>
@@ -4665,7 +4628,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>391315141.10000002</v>
       </c>
     </row>
@@ -4677,7 +4639,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>735601778.95000005</v>
       </c>
     </row>
@@ -4699,7 +4660,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,7 +4807,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="57">
-        <f>90281789.11+43001962.29</f>
         <v>133283751.40000001</v>
       </c>
     </row>
@@ -4858,7 +4818,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>2533697537.8099999</v>
       </c>
     </row>
@@ -4912,7 +4871,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>1182217450.55</v>
       </c>
     </row>
@@ -5103,7 +5061,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>6221396341.8499994</v>
       </c>
     </row>
@@ -5680,7 +5637,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>5037490651.8699989</v>
       </c>
     </row>
@@ -5855,7 +5811,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>469016419</v>
       </c>
     </row>
@@ -5867,7 +5822,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>5506507070.8699989</v>
       </c>
     </row>
@@ -9456,7 +9410,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9614,7 +9568,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>321854489.62</v>
       </c>
     </row>
@@ -9668,7 +9621,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>57159371.779999994</v>
       </c>
     </row>
@@ -9859,7 +9811,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>883750946.98000002</v>
       </c>
     </row>
@@ -10281,7 +10232,6 @@
         <v>14</v>
       </c>
       <c r="E78" s="45">
-        <f>8780732.26-110732.26</f>
         <v>8670000</v>
       </c>
     </row>
@@ -10437,7 +10387,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>533608982.17000002</v>
       </c>
     </row>
@@ -10612,7 +10561,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>97897851.489999995</v>
       </c>
     </row>
@@ -10624,7 +10572,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>631506833.65999997</v>
       </c>
     </row>
@@ -10646,7 +10593,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10804,7 +10751,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>250121900.47999999</v>
       </c>
     </row>
@@ -10825,7 +10771,6 @@
         <v>51</v>
       </c>
       <c r="E16" s="43">
-        <f>12202500.02+1193822.45+104965+12277184.4+3424060+1184639.29+1867959.08+16770+1368600+16680+1257086.31+1538614.21</f>
         <v>36452880.759999998</v>
       </c>
     </row>
@@ -10837,7 +10782,6 @@
         <v>50</v>
       </c>
       <c r="E17" s="43">
-        <f>10560+23527+13590057.58+15690454.15+20192607.18+2785495.15+3660431.8+4907664+7843791.8+7656307.94+1002130.8+314999+889173.62+133379.65+119643.49</f>
         <v>78820223.159999996</v>
       </c>
     </row>
@@ -10860,7 +10804,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>299677647.00999999</v>
       </c>
     </row>
@@ -11051,7 +10994,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>917339201.90999997</v>
       </c>
     </row>
@@ -11628,7 +11570,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>613505651.41000021</v>
       </c>
     </row>
@@ -11803,7 +11744,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>184895010.53</v>
       </c>
     </row>
@@ -11815,7 +11755,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>798400661.94000018</v>
       </c>
     </row>
@@ -11836,8 +11775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B31B31-F0BA-44BB-A195-4E020097BFC5}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11995,7 +11934,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>245859929.39999998</v>
       </c>
     </row>
@@ -12049,7 +11987,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>65678829.650000006</v>
       </c>
     </row>
@@ -12165,7 +12102,6 @@
         <v>37</v>
       </c>
       <c r="E30" s="42">
-        <f>46733.08+655831.21</f>
         <v>702564.28999999992</v>
       </c>
     </row>
@@ -12241,7 +12177,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>848473262.74000001</v>
       </c>
     </row>
@@ -12329,7 +12264,6 @@
         <v>26</v>
       </c>
       <c r="E46" s="42">
-        <f>16104372.96+3622176.21</f>
         <v>19726549.170000002</v>
       </c>
     </row>
@@ -12819,7 +12753,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>799092062.16999996</v>
       </c>
     </row>
@@ -12877,7 +12810,6 @@
         <v>2</v>
       </c>
       <c r="E98" s="42">
-        <f>41061.38+23186516.82</f>
         <v>23227578.199999999</v>
       </c>
     </row>
@@ -12995,7 +12927,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>23227578.199999999</v>
       </c>
     </row>
@@ -13007,7 +12938,6 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>822319640.37</v>
       </c>
     </row>
